--- a/biology/Zoologie/Gymnosomata/Gymnosomata.xlsx
+++ b/biology/Zoologie/Gymnosomata/Gymnosomata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Gymnosomata sont un ordre de mollusques de la sous-classe des Heterobranchia. Ce groupe est extrêmement proche de celui des Thecosomata[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Gymnosomata sont un ordre de mollusques de la sous-classe des Heterobranchia. Ce groupe est extrêmement proche de celui des Thecosomata. 
 La plupart des espèces de ce groupe ont la particularité d'être pélagiques (nageuses), ce qui est rare chez les gastéropodes. 
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (12 décembre 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (12 décembre 2014) :
 super-famille des Clionoidea Rafinesque, 1815
 famille des Clionidae Rafinesque, 1815 — 6 genres
 famille des Cliopsidae O. G. Costa, 1873 — 2 genres
